--- a/Data Shielding.xlsx
+++ b/Data Shielding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssavv\PycharmProjects\owl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5C3559-EACF-433C-AF94-338765A7E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32352B-2F6F-4A5C-8234-47A4BBF782F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{8E956886-ED85-46A8-8573-B2E3BA658765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E956886-ED85-46A8-8573-B2E3BA658765}"/>
   </bookViews>
   <sheets>
     <sheet name="Workload" sheetId="1" r:id="rId1"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D62929-6469-4D62-B66B-E145D8C68570}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>25</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31E36AB-A225-4418-B3CD-4C6D64E1587F}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6281,6 +6281,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x010100C103232C6E8A9F4786F4931F22926628" ma:contentTypeVersion="10" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="7aacd2ad4ca2db625bcb0f2b2dfa7f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c534cbb-98ba-4cb9-973c-9e8933896e09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4957878fb0f27a26c83ca9371c5fdd2" ns3:_="">
     <xsd:import namespace="2c534cbb-98ba-4cb9-973c-9e8933896e09"/>
@@ -6464,12 +6470,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05CFFE2D-9351-48C0-BEBD-21AE31473A40}">
   <ds:schemaRefs>
@@ -6479,6 +6479,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5770FA-8E4B-44FB-B5A5-8351A518A573}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c534cbb-98ba-4cb9-973c-9e8933896e09"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F497AE93-C1D6-416F-8F9F-FDDAC02BD107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6494,20 +6510,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5770FA-8E4B-44FB-B5A5-8351A518A573}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c534cbb-98ba-4cb9-973c-9e8933896e09"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>